--- a/spreadsheets/console.xlsx
+++ b/spreadsheets/console.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP-TB\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035DE9F6-6F27-41A2-B974-B7087DA7EBAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB0F817-9BC9-4820-ACA7-E1B391F1F059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="239">
   <si>
     <t>project_name</t>
   </si>
@@ -739,7 +739,10 @@
     <t>for SA</t>
   </si>
   <si>
-    <t>test</t>
+    <t>50</t>
+  </si>
+  <si>
+    <t>test_acf</t>
   </si>
 </sst>
 </file>
@@ -1144,24 +1147,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" customWidth="1"/>
+    <col min="5" max="5" width="39.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1171,12 +1174,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1187,7 +1190,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1199,19 +1202,19 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1223,7 +1226,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1251,19 +1254,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1275,7 +1278,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>211</v>
       </c>
@@ -1287,7 +1290,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
@@ -1299,7 +1302,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>229</v>
       </c>
@@ -1308,17 +1311,19 @@
       </c>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1330,7 +1335,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1342,7 +1347,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1354,7 +1359,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +1371,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1378,7 +1383,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1390,7 +1395,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
@@ -1402,7 +1407,7 @@
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
@@ -1414,7 +1419,7 @@
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1426,7 +1431,7 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>206</v>
       </c>
@@ -1438,7 +1443,7 @@
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>207</v>
       </c>
@@ -1450,7 +1455,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -1462,7 +1467,7 @@
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -1476,7 +1481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
@@ -1490,7 +1495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
@@ -1502,7 +1507,7 @@
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
@@ -1514,7 +1519,7 @@
       </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>198</v>
       </c>
@@ -1526,7 +1531,7 @@
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>204</v>
       </c>
@@ -1540,7 +1545,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>202</v>
       </c>
@@ -1552,7 +1557,7 @@
       </c>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>228</v>
       </c>
@@ -1564,7 +1569,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
@@ -1590,7 +1595,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
@@ -1602,7 +1607,7 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>221</v>
       </c>
@@ -1614,7 +1619,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1625,7 +1630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>35</v>
       </c>
@@ -1637,7 +1642,7 @@
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>194</v>
       </c>
@@ -1647,7 +1652,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>197</v>
       </c>
@@ -1658,7 +1663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>201</v>
       </c>
@@ -1669,7 +1674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>199</v>
       </c>
@@ -1683,7 +1688,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>217</v>
       </c>
@@ -1695,7 +1700,7 @@
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>209</v>
       </c>
@@ -1709,7 +1714,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>203</v>
       </c>
@@ -1721,7 +1726,7 @@
       </c>
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>223</v>
       </c>
@@ -1732,7 +1737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>212</v>
       </c>
@@ -1743,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -1754,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>227</v>
       </c>
@@ -1765,7 +1770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>230</v>
       </c>
@@ -1776,7 +1781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>232</v>
       </c>
@@ -1787,7 +1792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -1798,7 +1803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>235</v>
       </c>
@@ -1874,14 +1879,14 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="b">
         <v>1</v>
       </c>
@@ -1901,7 +1906,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>192</v>
       </c>
@@ -1915,7 +1920,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1929,7 +1934,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -1937,7 +1942,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1945,7 +1950,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1953,7 +1958,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1961,7 +1966,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1969,7 +1974,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1977,7 +1982,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1985,7 +1990,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1993,727 +1998,727 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>190</v>
       </c>

--- a/spreadsheets/console.xlsx
+++ b/spreadsheets/console.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP-TB\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msee/Projects/2020/SNAP-TB/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035DE9F6-6F27-41A2-B974-B7087DA7EBAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0677E1-7F0F-1443-9B3B-37B82E5621B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="1" r:id="rId1"/>
     <sheet name="dropdown" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1144,24 +1144,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1199,19 +1199,19 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>211</v>
       </c>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>229</v>
       </c>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>206</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>207</v>
       </c>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>198</v>
       </c>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>204</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>202</v>
       </c>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>228</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>221</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>35</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>194</v>
       </c>
@@ -1647,7 +1647,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>197</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>201</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>199</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>217</v>
       </c>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>209</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>203</v>
       </c>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>223</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>212</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>227</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>230</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>232</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>235</v>
       </c>
@@ -1874,14 +1874,14 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="b">
         <v>1</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>192</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1993,727 +1993,727 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>190</v>
       </c>

--- a/spreadsheets/console.xlsx
+++ b/spreadsheets/console.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msee/Projects/2020/SNAP-TB/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0677E1-7F0F-1443-9B3B-37B82E5621B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8475559-936A-3E41-9C40-F7E8528EA9BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="239">
   <si>
     <t>project_name</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Test is 105</t>
   </si>
 </sst>
 </file>
@@ -1222,6 +1225,9 @@
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
+      <c r="E5" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">

--- a/spreadsheets/console.xlsx
+++ b/spreadsheets/console.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msee/Projects/2020/SNAP-TB/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8475559-936A-3E41-9C40-F7E8528EA9BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFB4692-2424-C944-8533-D1678E7C23AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5840" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="1" r:id="rId1"/>
@@ -739,10 +739,10 @@
     <t>for SA</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>Test is 105</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1207,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1225,9 +1225,6 @@
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -1262,7 +1259,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
@@ -1318,7 +1315,9 @@
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>1</v>
       </c>

--- a/spreadsheets/console.xlsx
+++ b/spreadsheets/console.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msee/Projects/2020/SNAP-TB/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8475559-936A-3E41-9C40-F7E8528EA9BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E5B1C7-E3C6-9245-A3D8-1E17E559A715}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5840" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="1" r:id="rId1"/>
@@ -739,10 +739,10 @@
     <t>for SA</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>Test is 105</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1195,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1207,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1225,9 +1225,6 @@
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -1262,7 +1259,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
@@ -1318,7 +1315,9 @@
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>1</v>
       </c>

--- a/spreadsheets/console.xlsx
+++ b/spreadsheets/console.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msee/Projects/2020/SNAP-TB/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFB4692-2424-C944-8533-D1678E7C23AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DDC6E2-DE31-E64C-8B15-D38C315D3827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5840" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1164,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1207,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>

--- a/spreadsheets/console.xlsx
+++ b/spreadsheets/console.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msee/Projects/2020/SNAP-TB/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User048\rrag0004\Desktop\config_snap_tb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DDC6E2-DE31-E64C-8B15-D38C315D3827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C276C5-B007-4410-A5CA-D8D755EA3DBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5840" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5835" yWindow="-21135" windowWidth="38400" windowHeight="21135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="1" r:id="rId1"/>
@@ -739,10 +739,10 @@
     <t>for SA</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>test_full_run</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
 </sst>
 </file>
@@ -1147,24 +1147,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="5" max="5" width="39.1640625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1174,12 +1174,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1202,19 +1202,19 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
@@ -1240,12 +1240,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
@@ -1254,7 +1254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>211</v>
       </c>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>229</v>
       </c>
@@ -1311,19 +1311,19 @@
       </c>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>206</v>
       </c>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>207</v>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>198</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>204</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>202</v>
       </c>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>228</v>
       </c>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>221</v>
       </c>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>35</v>
       </c>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>194</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>197</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>201</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>199</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>217</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>209</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>203</v>
       </c>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>223</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>212</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>227</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>230</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>232</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>235</v>
       </c>
@@ -1879,14 +1879,14 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="b">
         <v>1</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>192</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1998,727 +1998,727 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>190</v>
       </c>
